--- a/www.eia.gov/electricity/monthly/xls/table_2_10_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_10_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 2.10.B. Consumption of Petroleum Coke for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Thousand Tons)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1619,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="16">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13" s="16">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="16">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L13" s="16">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1657,13 +1657,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="13">
         <v>6</v>
       </c>
       <c r="D14" s="14">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="13">
         <v>6</v>
@@ -1733,13 +1733,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C16" s="13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="14">
-        <v>-3.5000000000000003E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L16" s="13">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1771,25 +1771,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="16">
-        <v>839</v>
+        <v>899</v>
       </c>
       <c r="C17" s="16">
-        <v>1064</v>
+        <v>1180</v>
       </c>
       <c r="D17" s="17">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="E17" s="16">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="F17" s="16">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="G17" s="16">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="H17" s="16">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="16">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L17" s="16">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,16 +1850,16 @@
         <v>159</v>
       </c>
       <c r="C19" s="13">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.46</v>
+        <v>-0.54</v>
       </c>
       <c r="E19" s="13">
         <v>159</v>
       </c>
       <c r="F19" s="13">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -1885,25 +1885,25 @@
         <v>28</v>
       </c>
       <c r="B20" s="13">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C20" s="13">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D20" s="14">
-        <v>-9.7000000000000003E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E20" s="13">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F20" s="13">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G20" s="13">
         <v>1</v>
       </c>
       <c r="H20" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L20" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,13 +1923,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="13">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C21" s="13">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="H21" s="13">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1961,19 +1961,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D22" s="14">
-        <v>-6.7000000000000004E-2</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E22" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F22" s="13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1999,13 +1999,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E23" s="16">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="K23" s="16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L23" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2037,13 +2037,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="14">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E24" s="13">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L24" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2303,19 +2303,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="16">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="C31" s="16">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="D31" s="17">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="E31" s="16">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F31" s="16">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="G31" s="16">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" s="16">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2417,19 +2417,19 @@
         <v>42</v>
       </c>
       <c r="B34" s="13">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="C34" s="13">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="D34" s="14">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="E34" s="13">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F34" s="13">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="G34" s="13">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>43</v>
       </c>
       <c r="B35" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L35" s="13">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2683,19 +2683,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="16">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C41" s="16">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="D41" s="17">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E41" s="16">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="F41" s="16">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="G41" s="16">
         <v>0</v>
@@ -2759,19 +2759,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="13">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C43" s="13">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="D43" s="14">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E43" s="13">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="F43" s="13">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>54</v>
       </c>
       <c r="B46" s="16">
-        <v>1497</v>
+        <v>1671</v>
       </c>
       <c r="C46" s="16">
-        <v>1394</v>
+        <v>1453</v>
       </c>
       <c r="D46" s="17">
-        <v>7.3999999999999996E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E46" s="16">
-        <v>1429</v>
+        <v>1598</v>
       </c>
       <c r="F46" s="16">
-        <v>1308</v>
+        <v>1359</v>
       </c>
       <c r="G46" s="16">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="16">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L46" s="16">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2949,19 +2949,19 @@
         <v>56</v>
       </c>
       <c r="B48" s="13">
-        <v>1459</v>
+        <v>1631</v>
       </c>
       <c r="C48" s="13">
-        <v>1333</v>
+        <v>1389</v>
       </c>
       <c r="D48" s="14">
-        <v>9.4E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E48" s="13">
-        <v>1429</v>
+        <v>1598</v>
       </c>
       <c r="F48" s="13">
-        <v>1308</v>
+        <v>1359</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
@@ -2976,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L48" s="13">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3025,13 +3025,13 @@
         <v>58</v>
       </c>
       <c r="B50" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C50" s="13">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D50" s="14">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="E50" s="13">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L50" s="13">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3063,25 +3063,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="16">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C51" s="16">
+        <v>168</v>
+      </c>
+      <c r="D51" s="17">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
         <v>153</v>
       </c>
-      <c r="D51" s="17">
-        <v>-0.1</v>
-      </c>
-      <c r="E51" s="16">
-        <v>0</v>
-      </c>
-      <c r="F51" s="16">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16">
-        <v>137</v>
-      </c>
       <c r="H51" s="16">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I51" s="16">
         <v>0</v>
@@ -3215,25 +3215,25 @@
         <v>63</v>
       </c>
       <c r="B55" s="13">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C55" s="13">
+        <v>168</v>
+      </c>
+      <c r="D55" s="14">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
         <v>153</v>
       </c>
-      <c r="D55" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0</v>
-      </c>
-      <c r="F55" s="13">
-        <v>0</v>
-      </c>
-      <c r="G55" s="13">
-        <v>137</v>
-      </c>
       <c r="H55" s="13">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3671,25 +3671,25 @@
         <v>75</v>
       </c>
       <c r="B67" s="16">
-        <v>3635</v>
+        <v>3939</v>
       </c>
       <c r="C67" s="16">
-        <v>3508</v>
+        <v>3768</v>
       </c>
       <c r="D67" s="17">
-        <v>3.5999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E67" s="16">
-        <v>2931</v>
+        <v>3170</v>
       </c>
       <c r="F67" s="16">
-        <v>2710</v>
+        <v>2888</v>
       </c>
       <c r="G67" s="16">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="H67" s="16">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="I67" s="16">
         <v>1</v>
@@ -3698,10 +3698,10 @@
         <v>2</v>
       </c>
       <c r="K67" s="16">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="L67" s="16">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
